--- a/medicine/Enfance/Prix_de_création_littéraire_Bibliothèque_de_Québec-Salon_international_du_livre_de_Québec/Prix_de_création_littéraire_Bibliothèque_de_Québec-Salon_international_du_livre_de_Québec.xlsx
+++ b/medicine/Enfance/Prix_de_création_littéraire_Bibliothèque_de_Québec-Salon_international_du_livre_de_Québec/Prix_de_création_littéraire_Bibliothèque_de_Québec-Salon_international_du_livre_de_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_de_cr%C3%A9ation_litt%C3%A9raire_Biblioth%C3%A8que_de_Qu%C3%A9bec-Salon_international_du_livre_de_Qu%C3%A9bec</t>
+          <t>Prix_de_création_littéraire_Bibliothèque_de_Québec-Salon_international_du_livre_de_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Salon international du livre de Québec a créé en 2003 le Prix de création littéraire Bibliothèque de Québec-Salon international du livre de Québec dans le but de souligner le dynamisme de la vie littéraire dans la grande région de Québec. 
 Il y a trois prix. Le premier est attribué à un auteur ou à deux coauteurs pour la qualité et l’originalité d’une œuvre de création littéraire pour adulte. Le deuxième est destiné à un auteur de littérature jeunesse. Depuis 2019, un troisième prix est remis, dans la catégorie essai.
-Les genres littéraires admissibles sont le roman, la poésie, la nouvelle, le conte, le récit, la biographie, le théâtre et l'essai[1].
+Les genres littéraires admissibles sont le roman, la poésie, la nouvelle, le conte, le récit, la biographie, le théâtre et l'essai.
 Les auteurs doivent résider dans la Communauté métropolitaine de Québec.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_de_cr%C3%A9ation_litt%C3%A9raire_Biblioth%C3%A8que_de_Qu%C3%A9bec-Salon_international_du_livre_de_Qu%C3%A9bec</t>
+          <t>Prix_de_création_littéraire_Bibliothèque_de_Québec-Salon_international_du_livre_de_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Lauréats littérature adulte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2003 - Jacques Poulin, Les Yeux bleus de Mistassini
 2004 - Hans-Jürgen Greif, Orphéo
@@ -526,8 +540,8 @@
 2010 - Jean Lemieux, Le mort du chemin des Arsène
 2011 - Dominike Audet, L’âme du minotaure
 2012 - Yves Morin, Les Cœurs tigrés
-2013 - François Blais, Document 1[2]
-2014 - Hans-Jürgen Greif, La colère du faucon[3]
+2013 - François Blais, Document 1
+2014 - Hans-Jürgen Greif, La colère du faucon
 2015 - Nathalie Jean, Le vent dans le dos
 2016 - Hans-Jürgen Greif, Le photographe d’ombres
 2017 - Érika Soucy, Les murailles
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_de_cr%C3%A9ation_litt%C3%A9raire_Biblioth%C3%A8que_de_Qu%C3%A9bec-Salon_international_du_livre_de_Qu%C3%A9bec</t>
+          <t>Prix_de_création_littéraire_Bibliothèque_de_Québec-Salon_international_du_livre_de_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,7 +579,9 @@
           <t>Lauréats littérature jeunesse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2004 - Anique Poitras, La chute du corbeau
 2005 - Jean Lemieux, Le fil de la vie
@@ -576,7 +592,7 @@
 2010 - Sylvain Hotte, Aréna, tome 1-Panache
 2011 - Johanne Mercier, Mes parents sont gentils… mais tellement paresseux !
 2012 - Lyne Vanier, Cassée
-2013 - Martine Latulippe, Le voisin, Rosa, les poissons et moi[4]
+2013 - Martine Latulippe, Le voisin, Rosa, les poissons et moi
 2014 - Élizabeth Lepage-Boily, Maude, tomes 1-2-3
 2015 - Yvon Brochu, Galoche,  héros  malgré
 2016 - Lyne Vanier, Mon frère n’est pas une asperge
@@ -597,7 +613,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prix_de_cr%C3%A9ation_litt%C3%A9raire_Biblioth%C3%A8que_de_Qu%C3%A9bec-Salon_international_du_livre_de_Qu%C3%A9bec</t>
+          <t>Prix_de_création_littéraire_Bibliothèque_de_Québec-Salon_international_du_livre_de_Québec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,7 +631,9 @@
           <t>Lauréats essai</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2019 - Thomas O. St-Pierre, Miley Cyrus et les malheureux du siècle
 2020 - Jean Désy, Être et n’être pas : Chronique d’une crise nordique
